--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuyPhong\lottery-master\server\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315"/>
   </bookViews>
@@ -19,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="271">
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="267">
   <si>
     <t>WTA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,554 +558,426 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OSAKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈勒普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科维托娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝尔滕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科贝尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃兹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡萨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅尔滕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王蔷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加西亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆古鲁扎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥胖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本西奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿扎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢淑薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛吉斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞莱斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨拉波娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维基奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩内塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃拉尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>德约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳达尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费德勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小兹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大师兄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安德森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西里奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒂姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦织圭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊斯内尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡恰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘里奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福格尼尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西西帕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿古特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约翰逊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米尔曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克里赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索萨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝克尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿加西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布莱恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马胡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特松佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红楼梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林黛玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛宝钗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾宝玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾元春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惜春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李纨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史湘云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王熙凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巧姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦可卿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麝月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袭人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳鸯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪雁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫鹃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾赦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾敬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾琏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾珍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芳官</t>
-  </si>
-  <si>
-    <t>藕官</t>
-  </si>
-  <si>
-    <t>药官</t>
-  </si>
-  <si>
-    <t>蕊官</t>
-  </si>
-  <si>
-    <t>玉官</t>
-  </si>
-  <si>
-    <t>龄官</t>
-  </si>
-  <si>
-    <t>宝官</t>
-  </si>
-  <si>
-    <t>茄官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琪官</t>
-  </si>
-  <si>
-    <t>碧昂丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦丹娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布兰妮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕾哈娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿黛尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾老板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火星哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林肯公园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾薇儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MUSIC</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Ánh Tiên</t>
+  </si>
+  <si>
+    <t>Nguyệt Nga</t>
+  </si>
+  <si>
+    <t>Phương Nga</t>
+  </si>
+  <si>
+    <t>Diễm My</t>
+  </si>
+  <si>
+    <t>Diễm Trang</t>
+  </si>
+  <si>
+    <t>Tuyết Băng</t>
+  </si>
+  <si>
+    <t>Băng Tâm</t>
+  </si>
+  <si>
+    <t>Bạch Tuyết</t>
+  </si>
+  <si>
+    <t>Bạch Vân</t>
+  </si>
+  <si>
+    <t>Bạch Yến</t>
+  </si>
+  <si>
+    <t>Kiều Trang</t>
+  </si>
+  <si>
+    <t>Kiều Linh</t>
+  </si>
+  <si>
+    <t>Kiều Ly</t>
+  </si>
+  <si>
+    <t>Kiều Vy</t>
+  </si>
+  <si>
+    <t>Diễm Ly</t>
+  </si>
+  <si>
+    <t>Diễm Phương</t>
+  </si>
+  <si>
+    <t>Mai Nga</t>
+  </si>
+  <si>
+    <t>Hạ Tiên</t>
+  </si>
+  <si>
+    <t>Hằng Nga</t>
+  </si>
+  <si>
+    <t>Cát Tiên</t>
+  </si>
+  <si>
+    <t>Thiên Kim</t>
+  </si>
+  <si>
+    <t>Tuệ Anh</t>
+  </si>
+  <si>
+    <t>Tuệ An</t>
+  </si>
+  <si>
+    <t>Tuệ Mẫn</t>
+  </si>
+  <si>
+    <t>Tuệ Lâm</t>
+  </si>
+  <si>
+    <t>Tuệ Nhi</t>
+  </si>
+  <si>
+    <t>Tuệ Linh</t>
+  </si>
+  <si>
+    <t>Tuệ Minh</t>
+  </si>
+  <si>
+    <t>Tuệ Nghi</t>
+  </si>
+  <si>
+    <t>Mẫn Nhi</t>
+  </si>
+  <si>
+    <t>Minh Anh</t>
+  </si>
+  <si>
+    <t>Minh Thư</t>
+  </si>
+  <si>
+    <t>Minh Thy</t>
+  </si>
+  <si>
+    <t>Thiên Mẫn</t>
+  </si>
+  <si>
+    <t>Thanh Mẫn</t>
+  </si>
+  <si>
+    <t>Quỳnh Thư</t>
+  </si>
+  <si>
+    <t>Ngọc Anh</t>
+  </si>
+  <si>
+    <t>Thu Anh</t>
+  </si>
+  <si>
+    <t>Thiên Minh</t>
+  </si>
+  <si>
+    <t>Chi Anh</t>
+  </si>
+  <si>
+    <t>Mẫn Tiên</t>
+  </si>
+  <si>
+    <t>Đan Thư</t>
+  </si>
+  <si>
+    <t>Đoan Trang</t>
+  </si>
+  <si>
+    <t>Nguyệt Cát</t>
+  </si>
+  <si>
+    <t>Hiểu Vân</t>
+  </si>
+  <si>
+    <t>Thanh Tâm</t>
+  </si>
+  <si>
+    <t>Ngọc Thảo</t>
+  </si>
+  <si>
+    <t>Thảo Hiền</t>
+  </si>
+  <si>
+    <t>Thu Thảo</t>
+  </si>
+  <si>
+    <t>Mai Chi</t>
+  </si>
+  <si>
+    <t>Ánh Chi</t>
+  </si>
+  <si>
+    <t>Mỹ Dung</t>
+  </si>
+  <si>
+    <t>Ngọc Dung</t>
+  </si>
+  <si>
+    <t>Cẩm Duyên</t>
+  </si>
+  <si>
+    <t>Bích Hiền</t>
+  </si>
+  <si>
+    <t>Bích Vân</t>
+  </si>
+  <si>
+    <t>Hà Phương</t>
+  </si>
+  <si>
+    <t>Hạnh Linh</t>
+  </si>
+  <si>
+    <t>Minh Khuê</t>
+  </si>
+  <si>
+    <t>Di Hân</t>
+  </si>
+  <si>
+    <t>Bích Hân</t>
+  </si>
+  <si>
+    <t>Minh An</t>
+  </si>
+  <si>
+    <t>Linh An</t>
+  </si>
+  <si>
+    <t>Thiên An</t>
+  </si>
+  <si>
+    <t>An Nhiên</t>
+  </si>
+  <si>
+    <t>Hiểu Bình</t>
+  </si>
+  <si>
+    <t>Ngọc Bình</t>
+  </si>
+  <si>
+    <t>Ánh Dương</t>
+  </si>
+  <si>
+    <t>Ngọc Nhiên</t>
+  </si>
+  <si>
+    <t>Linh Đan</t>
+  </si>
+  <si>
+    <t>Ngọc Diệu</t>
+  </si>
+  <si>
+    <t>Kim Chi</t>
+  </si>
+  <si>
+    <t>Ngọc Diệp</t>
+  </si>
+  <si>
+    <t>Thu San</t>
+  </si>
+  <si>
+    <t>Hoài San</t>
+  </si>
+  <si>
+    <t>Bảo An</t>
+  </si>
+  <si>
+    <t>An Di</t>
+  </si>
+  <si>
+    <t>An Hạ</t>
+  </si>
+  <si>
+    <t>Mai Ngọc</t>
+  </si>
+  <si>
+    <t>Ngọc Nghi</t>
+  </si>
+  <si>
+    <t>Bảo Nhi</t>
+  </si>
+  <si>
+    <t>Bảo Ngọc</t>
+  </si>
+  <si>
+    <t>Bảo Ngân</t>
+  </si>
+  <si>
+    <t>Cẩm Nhung</t>
+  </si>
+  <si>
+    <t>Cẩm My</t>
+  </si>
+  <si>
+    <t>Cẩm Nhi</t>
+  </si>
+  <si>
+    <t>Bảo Anh</t>
+  </si>
+  <si>
+    <t>Gia Hân</t>
+  </si>
+  <si>
+    <t>Gia Nghi</t>
+  </si>
+  <si>
+    <t>Gia Tuệ</t>
+  </si>
+  <si>
+    <t>Bảo Hà</t>
+  </si>
+  <si>
+    <t>Bảo Huệ</t>
+  </si>
+  <si>
+    <t>Bảo Trân</t>
+  </si>
+  <si>
+    <t>Bảo Trâm</t>
+  </si>
+  <si>
+    <t>Bảo Châu</t>
+  </si>
+  <si>
+    <t>Bích Hà</t>
+  </si>
+  <si>
+    <t>Bích Hải</t>
+  </si>
+  <si>
+    <t>Bích Ngọc</t>
+  </si>
+  <si>
+    <t>Bích Hạnh</t>
+  </si>
+  <si>
+    <t>Đông Nghi</t>
+  </si>
+  <si>
+    <t>Đông Nhi</t>
+  </si>
+  <si>
+    <t>Ngọc Nhi</t>
+  </si>
+  <si>
+    <t>Minh Châu</t>
+  </si>
+  <si>
+    <t>Tuệ My</t>
+  </si>
+  <si>
+    <t>Thảo Vy</t>
+  </si>
+  <si>
+    <t>Thanh Vy</t>
+  </si>
+  <si>
+    <t>Ái Vy</t>
+  </si>
+  <si>
+    <t>Ái Linh</t>
+  </si>
+  <si>
+    <t>Ái Trang</t>
+  </si>
+  <si>
+    <t>Ngọc Khánh</t>
+  </si>
+  <si>
+    <t>Khánh An</t>
+  </si>
+  <si>
+    <t>Khánh Ly</t>
+  </si>
+  <si>
+    <t>Bội Linh</t>
+  </si>
+  <si>
+    <t>Giao Linh</t>
+  </si>
+  <si>
+    <t>Họa Mi</t>
+  </si>
+  <si>
+    <t>Khánh Đan</t>
+  </si>
+  <si>
+    <t>Ngọc Hân</t>
+  </si>
+  <si>
+    <t>Khánh Hân</t>
+  </si>
+  <si>
+    <t>Khả Hân</t>
+  </si>
+  <si>
+    <t>Nhã Linh</t>
+  </si>
+  <si>
+    <t>Hạ Linh</t>
+  </si>
+  <si>
+    <t>Thạch Thảo</t>
+  </si>
+  <si>
+    <t>Tường Vy</t>
+  </si>
+  <si>
+    <t>Anh Thảo</t>
+  </si>
+  <si>
+    <t>Yên Chi</t>
+  </si>
+  <si>
+    <t>Hải Đường</t>
+  </si>
+  <si>
+    <t>Yến Thảo</t>
+  </si>
+  <si>
+    <t>Thanh Anh</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1120,37 +985,28 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1195,86 +1051,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1294,7 +1082,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1575,7 +1363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1583,1509 +1371,1477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="26.75" style="1"/>
+    <col min="1" max="16384" width="26.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>216</v>
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>218</v>
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>219</v>
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>220</v>
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>221</v>
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>222</v>
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>223</v>
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>224</v>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>225</v>
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>226</v>
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>228</v>
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>229</v>
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>230</v>
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>231</v>
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>232</v>
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>233</v>
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>234</v>
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>235</v>
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>236</v>
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>237</v>
+        <v>103</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>238</v>
+        <v>104</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>239</v>
+        <v>105</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>240</v>
+        <v>106</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>242</v>
+        <v>107</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>241</v>
+        <v>108</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>243</v>
+        <v>109</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>245</v>
+        <v>111</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>246</v>
+        <v>113</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>247</v>
+        <v>114</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>248</v>
+        <v>115</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>249</v>
+        <v>116</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>250</v>
+        <v>117</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>251</v>
+        <v>118</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>252</v>
+        <v>119</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>253</v>
+        <v>120</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>255</v>
+        <v>121</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>256</v>
+        <v>122</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>257</v>
+        <v>123</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>253</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>258</v>
+        <v>124</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>254</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>259</v>
+        <v>125</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>260</v>
+        <v>126</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>261</v>
+        <v>127</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>262</v>
+        <v>128</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>263</v>
+        <v>129</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>264</v>
+        <v>130</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>266</v>
+        <v>132</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>267</v>
+        <v>100</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>268</v>
+        <v>101</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>269</v>
+        <v>102</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="3"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="3"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="3"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="3"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="3"/>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="3"/>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="3"/>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="3"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="3"/>
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
